--- a/youtube_channels.xlsx
+++ b/youtube_channels.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,220 +446,506 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PC Centric</t>
+          <t>GamingWithKev</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>632000</t>
+          <t>8820000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>112551962</t>
+          <t>5101789583</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>2912</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Techno</t>
+          <t>Total Gaming</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2050000</t>
+          <t>35200000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>59947157</t>
+          <t>5517168839</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1192</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MrBeast Gaming</t>
+          <t>Kitt Gaming</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>33500000</t>
+          <t>1530000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5817954501</t>
+          <t>244652192</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>361</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MoreAliA</t>
+          <t>Tonde Gamer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14300000</t>
+          <t>9070000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4126035160</t>
+          <t>1920185417</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2288</t>
+          <t>2072</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ben Azelart</t>
+          <t>Jdyo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21400000</t>
+          <t>7360</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4259072035</t>
+          <t>1359640</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>210</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SQUEEZIE GAMING</t>
+          <t>MUNNO Gaming</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4600000</t>
+          <t>3320000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1817489768</t>
+          <t>773699749</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>1932</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aphmau</t>
+          <t xml:space="preserve">Nidal Wonder Official </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17100000</t>
+          <t>1640000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17469075619</t>
+          <t>256934077</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4363</t>
+          <t>97</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Top5Gaming</t>
+          <t>Magic Music</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5740000</t>
+          <t>4760000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2138417903</t>
+          <t>1002080172</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>1410</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Royalty Gaming</t>
+          <t>@EDITOR ROHAN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4640000</t>
+          <t>13600</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>700318218</t>
+          <t>1282315</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>157</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Altcoin Daily</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1310000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>173653230</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2271</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Gaming With Talha Is Back</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2090000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>244561635</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MrBeast Gaming</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>34600000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6034893517</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Zayed Gaming</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>915000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>180742172</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ASMR Gaming News</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>271000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>77721921</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Asmongold Clips</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>431000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>840790674</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Exiled</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>18200</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3237105</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Techno Gamerz</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>33900000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9557190297</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>937</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EazyGoingWILDShorty</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>106000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>53702607</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Magic Music Mix</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>571000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>142419583</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MoreAliA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14600000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4182881691</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2295</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Grizzley Gang Gaming</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>623000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>202099756</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Aburob Gaming</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>563000</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>55497003</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>80</t>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>582000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>59347203</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Laka Gaming</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>6230000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>902037518</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2050</t>
         </is>
       </c>
     </row>
